--- a/src/Pickles/MIL_pickles/Output/AN180_TestScript_Desktop_Labelling_System_FR_NFR.xlsx
+++ b/src/Pickles/MIL_pickles/Output/AN180_TestScript_Desktop_Labelling_System_FR_NFR.xlsx
@@ -8,6 +8,7 @@
   <x:sheets>
     <x:sheet name="TOC" sheetId="2" r:id="rId2"/>
     <x:sheet name="LEGALINFORMATIONPAGE" sheetId="3" r:id="rId3"/>
+    <x:sheet name="SEEWHATSNEW" sheetId="4" r:id="rId4"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <x:si>
     <x:t>LegalInformationPage</x:t>
   </x:si>
@@ -60,6 +61,87 @@
   </x:si>
   <x:si>
     <x:t>the Instructions for Use is displayed in electronic format</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SeeWhatsNew</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@FR, @FR029, @UR027, @Labelling, @DesktopOnly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SeeWhatsNewOnStartup</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@FR029-1, @UR027-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Given </x:t>
+  </x:si>
+  <x:si>
+    <x:t>I have not dismissed the news for the version installed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I start AssistDent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the what's new form is displayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SeeWhatsNewAllVersions</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@FR029-2, @UR027-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>an upgrade of AssistDent from the previous version</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the new features were previously dismissed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the what's new form contains the new features</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the new features apply only to the current version</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@FR029-3, @UR027-1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>a clean install of AssistDent with no settings files</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the new features apply to the current version and every previous version</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DimissAndDontShowAgain</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@FR029-4, @UR027-2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I check the "Don't show me this again" checkbox</x:t>
+  </x:si>
+  <x:si>
+    <x:t>restart AssistDent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AssistDent starts</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the what's new form is not displayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SeeWhatsNewAfterStartup</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@FR029-5, @UR027-3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I have started AssistDent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I access the "See What' New" menu option</x:t>
   </x:si>
   <x:si>
     <x:t>functional</x:t>
@@ -465,7 +547,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B2"/>
+  <x:dimension ref="A1:B3"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -473,7 +555,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
@@ -481,9 +563,15 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="3" spans="1:2">
+      <x:c r="B3" s="4" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:hyperlinks>
     <x:hyperlink ref="B2" location="'LEGALINFORMATIONPAGE'!A1" display="LegalInformationPage"/>
+    <x:hyperlink ref="B3" location="'SEEWHATSNEW'!A1" display="SeeWhatsNew"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -601,4 +689,300 @@
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:D47"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:4">
+      <x:c r="A1" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4">
+      <x:c r="B2" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C2" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4"/>
+    <x:row r="5" spans="1:4">
+      <x:c r="B5" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
+      <x:c r="B6" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4"/>
+    <x:row r="8" spans="1:4">
+      <x:c r="C8" s="3" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="C9" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="C10" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="B12" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="B13" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4"/>
+    <x:row r="15" spans="1:4">
+      <x:c r="C15" s="3" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
+      <x:c r="C16" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4">
+      <x:c r="C17" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4">
+      <x:c r="C18" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:4">
+      <x:c r="C19" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
+      <x:c r="C20" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:4">
+      <x:c r="B22" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:4">
+      <x:c r="B23" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4"/>
+    <x:row r="25" spans="1:4">
+      <x:c r="C25" s="3" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:4">
+      <x:c r="C26" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:4">
+      <x:c r="C27" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:4">
+      <x:c r="C28" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:4">
+      <x:c r="C29" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:4">
+      <x:c r="B31" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:4">
+      <x:c r="B32" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:4"/>
+    <x:row r="34" spans="1:4">
+      <x:c r="C34" s="3" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D34" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:4">
+      <x:c r="C35" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:4">
+      <x:c r="C36" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:4">
+      <x:c r="C37" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:4">
+      <x:c r="C38" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D38" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:4">
+      <x:c r="C39" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:4">
+      <x:c r="C40" s="3" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:4">
+      <x:c r="B42" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:4">
+      <x:c r="B43" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:4"/>
+    <x:row r="45" spans="1:4">
+      <x:c r="C45" s="3" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:4">
+      <x:c r="C46" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:4">
+      <x:c r="C47" s="3" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D47" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>